--- a/outputs-HGR-r202/c__Actinomycetia.xlsx
+++ b/outputs-HGR-r202/c__Actinomycetia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,23 +479,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1001.fa</t>
+          <t>even_MAG-GUT1000.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04733919741403519</v>
+        <v>0.01059946023112067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003154727230324839</v>
+        <v>0.0005660834930799775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9508558799134025</v>
+        <v>0.988825334873363</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001489449949529866</v>
+        <v>9.12140243631894e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9508558799134025</v>
+        <v>0.988825334873363</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,87 +511,87 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1012.fa</t>
+          <t>even_MAG-GUT1001.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.953151587890641</v>
+        <v>0.04733919741403519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03268682391081464</v>
+        <v>0.0003154727230324839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01415403591221037</v>
+        <v>0.9508558799134025</v>
       </c>
       <c r="E3" t="n">
-        <v>7.552286334042737e-06</v>
+        <v>0.001489449949529866</v>
       </c>
       <c r="F3" t="n">
-        <v>0.953151587890641</v>
+        <v>0.9508558799134025</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1026.fa</t>
+          <t>even_MAG-GUT1012.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2489515376171674</v>
+        <v>0.953151587890641</v>
       </c>
       <c r="C4" t="n">
-        <v>9.830758655575059e-05</v>
+        <v>0.03268682391081464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7509172304402899</v>
+        <v>0.01415403591221037</v>
       </c>
       <c r="E4" t="n">
-        <v>3.292435598688929e-05</v>
+        <v>7.552286334042737e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7509172304402899</v>
+        <v>0.953151587890641</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1033.fa</t>
+          <t>even_MAG-GUT1026.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2717864313322267</v>
+        <v>0.2489515376171674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001161347695586548</v>
+        <v>9.830758655575059e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7279794976757364</v>
+        <v>0.7509172304402899</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001179362224782049</v>
+        <v>3.292435598688929e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7279794976757364</v>
+        <v>0.7509172304402899</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -600,94 +600,94 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10488.fa</t>
+          <t>even_MAG-GUT1033.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9972204149328163</v>
+        <v>0.2717864313322267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002716359845538604</v>
+        <v>0.0001161347695586548</v>
       </c>
       <c r="D6" t="n">
-        <v>5.54931154161297e-05</v>
+        <v>0.7279794976757364</v>
       </c>
       <c r="E6" t="n">
-        <v>7.732106228755609e-06</v>
+        <v>0.0001179362224782049</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9972204149328163</v>
+        <v>0.7279794976757364</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1054.fa</t>
+          <t>even_MAG-GUT10488.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04208929021378095</v>
+        <v>0.9972204149328163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0045749993972414</v>
+        <v>0.002716359845538604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9519812782055114</v>
+        <v>5.54931154161297e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001354432183466298</v>
+        <v>7.732106228755609e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9519812782055114</v>
+        <v>0.9972204149328163</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1059.fa</t>
+          <t>even_MAG-GUT1054.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03857001893134503</v>
+        <v>0.04208929021378095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00158833774136262</v>
+        <v>0.0045749993972414</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9569483876674885</v>
+        <v>0.9519812782055114</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002893255659803871</v>
+        <v>0.001354432183466298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9569483876674885</v>
+        <v>0.9519812782055114</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,23 +703,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1065.fa</t>
+          <t>even_MAG-GUT1059.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01944159192728841</v>
+        <v>0.03857001893134503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003115785378580097</v>
+        <v>0.00158833774136262</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9780078518904716</v>
+        <v>0.9569483876674885</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002238977644381973</v>
+        <v>0.002893255659803871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9780078518904716</v>
+        <v>0.9569483876674885</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1089.fa</t>
+          <t>even_MAG-GUT1065.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02249735547112332</v>
+        <v>0.01944159192728841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001419322674438092</v>
+        <v>0.0003115785378580097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9723715261902586</v>
+        <v>0.9780078518904716</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003711795664179964</v>
+        <v>0.002238977644381973</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9723715261902586</v>
+        <v>0.9780078518904716</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1122.fa</t>
+          <t>even_MAG-GUT1089.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06819534738125753</v>
+        <v>0.02249735547112332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003120522400140033</v>
+        <v>0.001419322674438092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9300856095017964</v>
+        <v>0.9723715261902586</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001406990876932027</v>
+        <v>0.003711795664179964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9300856095017964</v>
+        <v>0.9723715261902586</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -799,23 +799,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1128.fa</t>
+          <t>even_MAG-GUT1122.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.10536468083299</v>
+        <v>0.06819534738125753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002729770685240401</v>
+        <v>0.0003120522400140033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8913685046426861</v>
+        <v>0.9300856095017964</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005370438390835079</v>
+        <v>0.001406990876932027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8913685046426861</v>
+        <v>0.9300856095017964</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1131.fa</t>
+          <t>even_MAG-GUT1128.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08283939248624993</v>
+        <v>0.10536468083299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000246606920773083</v>
+        <v>0.002729770685240401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9160718193919369</v>
+        <v>0.8913685046426861</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0008421812010398866</v>
+        <v>0.0005370438390835079</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9160718193919369</v>
+        <v>0.8913685046426861</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -863,23 +863,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1133.fa</t>
+          <t>even_MAG-GUT1131.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02912393906533615</v>
+        <v>0.08283939248624993</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001904466541423528</v>
+        <v>0.000246606920773083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9698794377138821</v>
+        <v>0.9160718193919369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0008061765666395285</v>
+        <v>0.0008421812010398866</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9698794377138821</v>
+        <v>0.9160718193919369</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,23 +895,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1135.fa</t>
+          <t>even_MAG-GUT1133.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08214697266574576</v>
+        <v>0.02912393906533615</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008439382747652783</v>
+        <v>0.0001904466541423528</v>
       </c>
       <c r="D15" t="n">
-        <v>0.914727036487025</v>
+        <v>0.9698794377138821</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002282052572463915</v>
+        <v>0.0008061765666395285</v>
       </c>
       <c r="F15" t="n">
-        <v>0.914727036487025</v>
+        <v>0.9698794377138821</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,23 +927,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1139.fa</t>
+          <t>even_MAG-GUT1135.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06372205779534157</v>
+        <v>0.08214697266574576</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001088550848227677</v>
+        <v>0.0008439382747652783</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9359713922563184</v>
+        <v>0.914727036487025</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0001976948635172298</v>
+        <v>0.002282052572463915</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9359713922563184</v>
+        <v>0.914727036487025</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1143.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1128895730777362</v>
+        <v>0.06372205779534157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001188616542667349</v>
+        <v>0.0001088550848227677</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8838998045299433</v>
+        <v>0.9359713922563184</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002022005849653197</v>
+        <v>0.0001976948635172298</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8838998045299433</v>
+        <v>0.9359713922563184</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -991,23 +991,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1148.fa</t>
+          <t>even_MAG-GUT1143.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.498191750276245</v>
+        <v>0.1128895730777362</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001661674922816644</v>
+        <v>0.001188616542667349</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5016093675848726</v>
+        <v>0.8838998045299433</v>
       </c>
       <c r="E18" t="n">
-        <v>3.271464660063573e-05</v>
+        <v>0.002022005849653197</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5016093675848726</v>
+        <v>0.8838998045299433</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1016,30 +1016,30 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1149.fa</t>
+          <t>even_MAG-GUT1148.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06003687107981353</v>
+        <v>0.498191750276245</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001623604077464744</v>
+        <v>0.0001661674922816644</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9341798124577032</v>
+        <v>0.5016093675848726</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004159712385018434</v>
+        <v>3.271464660063573e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9341798124577032</v>
+        <v>0.5016093675848726</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1048,30 +1048,30 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1157.fa</t>
+          <t>even_MAG-GUT1149.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1431015127112344</v>
+        <v>0.06003687107981353</v>
       </c>
       <c r="C20" t="n">
-        <v>1.711319443423564e-05</v>
+        <v>0.001623604077464744</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8566906636642595</v>
+        <v>0.9341798124577032</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000190710430071937</v>
+        <v>0.004159712385018434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8566906636642595</v>
+        <v>0.9341798124577032</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1087,87 +1087,87 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT1157.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999133658101401</v>
+        <v>0.1431015127112344</v>
       </c>
       <c r="C21" t="n">
-        <v>4.568112896811605e-05</v>
+        <v>1.711319443423564e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>2.477720502937755e-05</v>
+        <v>0.8566906636642595</v>
       </c>
       <c r="E21" t="n">
-        <v>1.617585586229087e-05</v>
+        <v>0.000190710430071937</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999133658101401</v>
+        <v>0.8566906636642595</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1249.fa</t>
+          <t>even_MAG-GUT11934.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02453224751022672</v>
+        <v>0.9999133658101401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001599669870175783</v>
+        <v>4.568112896811605e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9727897129762495</v>
+        <v>2.477720502937755e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001078369643347926</v>
+        <v>1.617585586229087e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9727897129762495</v>
+        <v>0.9999133658101401</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1258.fa</t>
+          <t>even_MAG-GUT1249.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.08516163263419696</v>
+        <v>0.02453224751022672</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0006284625452655598</v>
+        <v>0.001599669870175783</v>
       </c>
       <c r="D23" t="n">
-        <v>0.913465812656691</v>
+        <v>0.9727897129762495</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0007440921638464759</v>
+        <v>0.001078369643347926</v>
       </c>
       <c r="F23" t="n">
-        <v>0.913465812656691</v>
+        <v>0.9727897129762495</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1183,23 +1183,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1265.fa</t>
+          <t>even_MAG-GUT1258.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06800255903950925</v>
+        <v>0.08516163263419696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003460218394474926</v>
+        <v>0.0006284625452655598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9258717719868137</v>
+        <v>0.913465812656691</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002665450579202173</v>
+        <v>0.0007440921638464759</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9258717719868137</v>
+        <v>0.913465812656691</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1215,23 +1215,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1274.fa</t>
+          <t>even_MAG-GUT1265.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04140593153483481</v>
+        <v>0.06800255903950925</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007096199877469947</v>
+        <v>0.003460218394474926</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9561573268471684</v>
+        <v>0.9258717719868137</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001727121630249849</v>
+        <v>0.002665450579202173</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9561573268471684</v>
+        <v>0.9258717719868137</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1247,23 +1247,23 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1282.fa</t>
+          <t>even_MAG-GUT1274.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0328781629943234</v>
+        <v>0.04140593153483481</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002316461050654191</v>
+        <v>0.0007096199877469947</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9610381693209685</v>
+        <v>0.9561573268471684</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003767206634053819</v>
+        <v>0.001727121630249849</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9610381693209685</v>
+        <v>0.9561573268471684</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1279,23 +1279,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1287.fa</t>
+          <t>even_MAG-GUT1282.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1131389546322785</v>
+        <v>0.0328781629943234</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003890399928603115</v>
+        <v>0.002316461050654191</v>
       </c>
       <c r="D27" t="n">
-        <v>0.880822530080296</v>
+        <v>0.9610381693209685</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002148115358822433</v>
+        <v>0.003767206634053819</v>
       </c>
       <c r="F27" t="n">
-        <v>0.880822530080296</v>
+        <v>0.9610381693209685</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,23 +1311,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1453.fa</t>
+          <t>even_MAG-GUT1287.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1451788964374814</v>
+        <v>0.1131389546322785</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0006426711301267513</v>
+        <v>0.003890399928603115</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8519100456724714</v>
+        <v>0.880822530080296</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00226838675992041</v>
+        <v>0.002148115358822433</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8519100456724714</v>
+        <v>0.880822530080296</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1343,23 +1343,23 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1485.fa</t>
+          <t>even_MAG-GUT1453.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01184645435570344</v>
+        <v>0.1451788964374814</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006040227264149956</v>
+        <v>0.0006426711301267513</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9821008841402071</v>
+        <v>0.8519100456724714</v>
       </c>
       <c r="E29" t="n">
-        <v>1.243423993941664e-05</v>
+        <v>0.00226838675992041</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9821008841402071</v>
+        <v>0.8519100456724714</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1375,23 +1375,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1529.fa</t>
+          <t>even_MAG-GUT1485.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1105253135338892</v>
+        <v>0.01184645435570344</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03150275275981244</v>
+        <v>0.006040227264149956</v>
       </c>
       <c r="D30" t="n">
-        <v>0.841391791026817</v>
+        <v>0.9821008841402071</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01658014267948125</v>
+        <v>1.243423993941664e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.841391791026817</v>
+        <v>0.9821008841402071</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1407,23 +1407,23 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1534.fa</t>
+          <t>even_MAG-GUT1529.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09563229276016826</v>
+        <v>0.1105253135338892</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001122650028504979</v>
+        <v>0.03150275275981244</v>
       </c>
       <c r="D31" t="n">
-        <v>0.903363736096962</v>
+        <v>0.841391791026817</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0008917061400193342</v>
+        <v>0.01658014267948125</v>
       </c>
       <c r="F31" t="n">
-        <v>0.903363736096962</v>
+        <v>0.841391791026817</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1439,23 +1439,23 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1537.fa</t>
+          <t>even_MAG-GUT1534.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01673802303290394</v>
+        <v>0.09563229276016826</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02035838441048751</v>
+        <v>0.0001122650028504979</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9536486164000625</v>
+        <v>0.903363736096962</v>
       </c>
       <c r="E32" t="n">
-        <v>0.009254976156546186</v>
+        <v>0.0008917061400193342</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9536486164000625</v>
+        <v>0.903363736096962</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1471,119 +1471,119 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1826.fa</t>
+          <t>even_MAG-GUT1537.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9900000398597265</v>
+        <v>0.01673802303290394</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009930597521260928</v>
+        <v>0.02035838441048751</v>
       </c>
       <c r="D33" t="n">
-        <v>6.925264549555465e-05</v>
+        <v>0.9536486164000625</v>
       </c>
       <c r="E33" t="n">
-        <v>1.099735168468767e-07</v>
+        <v>0.009254976156546186</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9900000398597265</v>
+        <v>0.9536486164000625</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1870.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03575993270253398</v>
+        <v>0.9984141019194418</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003319562145310223</v>
+        <v>0.001471283834427496</v>
       </c>
       <c r="D34" t="n">
-        <v>0.95806341229581</v>
+        <v>9.23371961313166e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002857092856345765</v>
+        <v>0.0001053805265176498</v>
       </c>
       <c r="F34" t="n">
-        <v>0.95806341229581</v>
+        <v>0.9984141019194418</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1873.fa</t>
+          <t>even_MAG-GUT1826.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01760625456011672</v>
+        <v>0.9900000398597265</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004224158188801866</v>
+        <v>0.009930597521260928</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9776793694481163</v>
+        <v>6.925264549555465e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0004902178029651149</v>
+        <v>1.099735168468767e-07</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9776793694481163</v>
+        <v>0.9900000398597265</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1877.fa</t>
+          <t>even_MAG-GUT1870.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04143096851703094</v>
+        <v>0.03575993270253398</v>
       </c>
       <c r="C36" t="n">
-        <v>0.000512961126986908</v>
+        <v>0.003319562145310223</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9569258112998522</v>
+        <v>0.95806341229581</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001130259056129839</v>
+        <v>0.002857092856345765</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9569258112998522</v>
+        <v>0.95806341229581</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1599,23 +1599,23 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1881.fa</t>
+          <t>even_MAG-GUT1873.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08849791168544204</v>
+        <v>0.01760625456011672</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002120469318258217</v>
+        <v>0.004224158188801866</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9038659322924054</v>
+        <v>0.9776793694481163</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005515686703894255</v>
+        <v>0.0004902178029651149</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9038659322924054</v>
+        <v>0.9776793694481163</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1883.fa</t>
+          <t>even_MAG-GUT1877.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.07070078578474748</v>
+        <v>0.04143096851703094</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001688886978856619</v>
+        <v>0.000512961126986908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9245342227755797</v>
+        <v>0.9569258112998522</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003076104460816105</v>
+        <v>0.001130259056129839</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9245342227755797</v>
+        <v>0.9569258112998522</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1663,23 +1663,23 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1912.fa</t>
+          <t>even_MAG-GUT1881.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.04731120590724956</v>
+        <v>0.08849791168544204</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0002630053068560532</v>
+        <v>0.002120469318258217</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9511848716551599</v>
+        <v>0.9038659322924054</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001240917130734531</v>
+        <v>0.005515686703894255</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9511848716551599</v>
+        <v>0.9038659322924054</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1695,87 +1695,87 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2058.fa</t>
+          <t>even_MAG-GUT1883.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9986123098145696</v>
+        <v>0.07070078578474748</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0009618683095301338</v>
+        <v>0.001688886978856619</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0004233060361017221</v>
+        <v>0.9245342227755797</v>
       </c>
       <c r="E40" t="n">
-        <v>2.51583979854456e-06</v>
+        <v>0.003076104460816105</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9986123098145696</v>
+        <v>0.9245342227755797</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2079.fa</t>
+          <t>even_MAG-GUT1912.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9961979062767371</v>
+        <v>0.04731120590724956</v>
       </c>
       <c r="C41" t="n">
-        <v>1.149646600685073e-05</v>
+        <v>0.0002630053068560532</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003397881136478412</v>
+        <v>0.9511848716551599</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0003927161207776207</v>
+        <v>0.001240917130734531</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9961979062767371</v>
+        <v>0.9511848716551599</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT2058.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9660577292440563</v>
+        <v>0.9986123098145696</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03378157995633119</v>
+        <v>0.0009618683095301338</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0001604520746083595</v>
+        <v>0.0004233060361017221</v>
       </c>
       <c r="E42" t="n">
-        <v>2.387250042381274e-07</v>
+        <v>2.51583979854456e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9660577292440563</v>
+        <v>0.9986123098145696</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1791,23 +1791,23 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28721.fa</t>
+          <t>even_MAG-GUT2079.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9985668605818271</v>
+        <v>0.9961979062767371</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001207394359961214</v>
+        <v>1.149646600685073e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000224219090000345</v>
+        <v>0.003397881136478412</v>
       </c>
       <c r="E43" t="n">
-        <v>1.525968211346901e-06</v>
+        <v>0.0003927161207776207</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9985668605818271</v>
+        <v>0.9961979062767371</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1823,23 +1823,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT23346.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9976666213398269</v>
+        <v>0.9857869769506482</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002192505983418261</v>
+        <v>0.01231459585722273</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0001346251720015551</v>
+        <v>0.001898095339837623</v>
       </c>
       <c r="E44" t="n">
-        <v>6.247504753247733e-06</v>
+        <v>3.318522914091152e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9976666213398269</v>
+        <v>0.9857869769506482</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1855,23 +1855,23 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT23723.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9981327640597926</v>
+        <v>0.9660577292440563</v>
       </c>
       <c r="C45" t="n">
-        <v>1.218901311783312e-05</v>
+        <v>0.03378157995633119</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001438849140441751</v>
+        <v>0.0001604520746083595</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0004161977866478637</v>
+        <v>2.387250042381274e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9981327640597926</v>
+        <v>0.9660577292440563</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1887,23 +1887,23 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT26586.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9997105012071431</v>
+        <v>0.999274793117641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000230453192088514</v>
+        <v>0.0002857127637660919</v>
       </c>
       <c r="D46" t="n">
-        <v>5.143737914150425e-05</v>
+        <v>0.000433408533998079</v>
       </c>
       <c r="E46" t="n">
-        <v>7.6082216268389e-06</v>
+        <v>6.085584594737707e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9997105012071431</v>
+        <v>0.999274793117641</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1919,23 +1919,23 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT28721.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9437407055683683</v>
+        <v>0.9985668605818271</v>
       </c>
       <c r="C47" t="n">
-        <v>0.05508208487463773</v>
+        <v>0.001207394359961214</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001176994520661662</v>
+        <v>0.000224219090000345</v>
       </c>
       <c r="E47" t="n">
-        <v>2.150363322652711e-07</v>
+        <v>1.525968211346901e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9437407055683683</v>
+        <v>0.9985668605818271</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1951,23 +1951,23 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT28738.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9665328764087848</v>
+        <v>0.9976666213398269</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03301641463956522</v>
+        <v>0.002192505983418261</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00045043850519397</v>
+        <v>0.0001346251720015551</v>
       </c>
       <c r="E48" t="n">
-        <v>2.704464560969248e-07</v>
+        <v>6.247504753247733e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9665328764087848</v>
+        <v>0.9976666213398269</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1983,23 +1983,23 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT36138.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9777570636778165</v>
+        <v>0.9981327640597926</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02216577289836742</v>
+        <v>1.218901311783312e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>7.713319583837231e-05</v>
+        <v>0.001438849140441751</v>
       </c>
       <c r="E49" t="n">
-        <v>3.022797765560109e-08</v>
+        <v>0.0004161977866478637</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9777570636778165</v>
+        <v>0.9981327640597926</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2015,23 +2015,23 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT37090.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9654496334542347</v>
+        <v>0.9997105012071431</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03414857122535722</v>
+        <v>0.000230453192088514</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004016741330711345</v>
+        <v>5.143737914150425e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>1.2118733696782e-07</v>
+        <v>7.6082216268389e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9654496334542347</v>
+        <v>0.9997105012071431</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2047,23 +2047,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT408.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9637309027915195</v>
+        <v>0.9437407055683683</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0358911587042928</v>
+        <v>0.05508208487463773</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0003778030469199777</v>
+        <v>0.001176994520661662</v>
       </c>
       <c r="E51" t="n">
-        <v>1.354572678232694e-07</v>
+        <v>2.150363322652711e-07</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9637309027915195</v>
+        <v>0.9437407055683683</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2079,23 +2079,23 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT409.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9762123319028065</v>
+        <v>0.9665328764087848</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0224422473798898</v>
+        <v>0.03301641463956522</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001344736527994826</v>
+        <v>0.00045043850519397</v>
       </c>
       <c r="E52" t="n">
-        <v>6.841893088216559e-07</v>
+        <v>2.704464560969248e-07</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9762123319028065</v>
+        <v>0.9665328764087848</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2111,23 +2111,23 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT412.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9455637598371278</v>
+        <v>0.9777570636778165</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05429170261901326</v>
+        <v>0.02216577289836742</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0001444605308414455</v>
+        <v>7.713319583837231e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>7.701301772587372e-08</v>
+        <v>3.022797765560109e-08</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9455637598371278</v>
+        <v>0.9777570636778165</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2143,23 +2143,23 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT418.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9695367877088487</v>
+        <v>0.9654496334542347</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03019235139902217</v>
+        <v>0.03414857122535722</v>
       </c>
       <c r="D54" t="n">
-        <v>0.000270796595745909</v>
+        <v>0.0004016741330711345</v>
       </c>
       <c r="E54" t="n">
-        <v>6.429638308787336e-08</v>
+        <v>1.2118733696782e-07</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9695367877088487</v>
+        <v>0.9654496334542347</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2175,23 +2175,23 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT420.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.89582212665788</v>
+        <v>0.9637309027915195</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1039674813867169</v>
+        <v>0.0358911587042928</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0002102500878396611</v>
+        <v>0.0003778030469199777</v>
       </c>
       <c r="E55" t="n">
-        <v>1.418675632690406e-07</v>
+        <v>1.354572678232694e-07</v>
       </c>
       <c r="F55" t="n">
-        <v>0.89582212665788</v>
+        <v>0.9637309027915195</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2207,23 +2207,23 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT421.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9030230024141865</v>
+        <v>0.9762123319028065</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09695471300317793</v>
+        <v>0.0224422473798898</v>
       </c>
       <c r="D56" t="n">
-        <v>2.225494153295939e-05</v>
+        <v>0.001344736527994826</v>
       </c>
       <c r="E56" t="n">
-        <v>2.964110246983462e-08</v>
+        <v>6.841893088216559e-07</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9030230024141865</v>
+        <v>0.9762123319028065</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2239,23 +2239,23 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT422.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9466384029860353</v>
+        <v>0.9455637598371278</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05280248161279878</v>
+        <v>0.05429170261901326</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0005588242514219934</v>
+        <v>0.0001444605308414455</v>
       </c>
       <c r="E57" t="n">
-        <v>2.911497440432004e-07</v>
+        <v>7.701301772587372e-08</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9466384029860353</v>
+        <v>0.9455637598371278</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2271,23 +2271,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT423.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9399483395324882</v>
+        <v>0.9695367877088487</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05998441735171385</v>
+        <v>0.03019235139902217</v>
       </c>
       <c r="D58" t="n">
-        <v>6.716893886203425e-05</v>
+        <v>0.000270796595745909</v>
       </c>
       <c r="E58" t="n">
-        <v>7.417693565716901e-08</v>
+        <v>6.429638308787336e-08</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9399483395324882</v>
+        <v>0.9695367877088487</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2303,23 +2303,23 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT425.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9226510905590439</v>
+        <v>0.89582212665788</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07532090224175518</v>
+        <v>0.1039674813867169</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002027237722618286</v>
+        <v>0.0002102500878396611</v>
       </c>
       <c r="E59" t="n">
-        <v>7.694765825358033e-07</v>
+        <v>1.418675632690406e-07</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9226510905590439</v>
+        <v>0.89582212665788</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2335,23 +2335,23 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT429.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9552118557712478</v>
+        <v>0.9030230024141865</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04057827337547211</v>
+        <v>0.09695471300317793</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004208794791214568</v>
+        <v>2.225494153295939e-05</v>
       </c>
       <c r="E60" t="n">
-        <v>1.076062065438793e-06</v>
+        <v>2.964110246983462e-08</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9552118557712478</v>
+        <v>0.9030230024141865</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2367,23 +2367,23 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT430.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9639996174153314</v>
+        <v>0.9466384029860353</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0348726022172245</v>
+        <v>0.05280248161279878</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001127319489667757</v>
+        <v>0.0005588242514219934</v>
       </c>
       <c r="E61" t="n">
-        <v>4.60877776426619e-07</v>
+        <v>2.911497440432004e-07</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9639996174153314</v>
+        <v>0.9466384029860353</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2399,23 +2399,23 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT431.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9405675145907292</v>
+        <v>0.9399483395324882</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05936596799489301</v>
+        <v>0.05998441735171385</v>
       </c>
       <c r="D62" t="n">
-        <v>6.642101679079813e-05</v>
+        <v>6.716893886203425e-05</v>
       </c>
       <c r="E62" t="n">
-        <v>9.639758700634797e-08</v>
+        <v>7.417693565716901e-08</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9405675145907292</v>
+        <v>0.9399483395324882</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT432.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9635327744440517</v>
+        <v>0.9226510905590439</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03458010722415735</v>
+        <v>0.07532090224175518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001886975047182225</v>
+        <v>0.002027237722618286</v>
       </c>
       <c r="E63" t="n">
-        <v>1.432846087132378e-07</v>
+        <v>7.694765825358033e-07</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9635327744440517</v>
+        <v>0.9226510905590439</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2463,23 +2463,23 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT441.fa</t>
+          <t>even_MAG-GUT43254.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.696026741786911</v>
+        <v>0.9988350957973849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2604408196552245</v>
+        <v>0.001110365750488988</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04352983946990241</v>
+        <v>2.840295961768273e-05</v>
       </c>
       <c r="E64" t="n">
-        <v>2.599087961883115e-06</v>
+        <v>2.613549250844301e-05</v>
       </c>
       <c r="F64" t="n">
-        <v>0.696026741786911</v>
+        <v>0.9988350957973849</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2488,30 +2488,30 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>o__Actinomycetales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT433.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9486723207103301</v>
+        <v>0.9552118557712478</v>
       </c>
       <c r="C65" t="n">
-        <v>0.05125877058546779</v>
+        <v>0.04057827337547211</v>
       </c>
       <c r="D65" t="n">
-        <v>6.880749846423848e-05</v>
+        <v>0.004208794791214568</v>
       </c>
       <c r="E65" t="n">
-        <v>1.012057378686181e-07</v>
+        <v>1.076062065438793e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9486723207103301</v>
+        <v>0.9552118557712478</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2527,23 +2527,23 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT435.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.870390916069531</v>
+        <v>0.9639996174153314</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1294817924724195</v>
+        <v>0.0348726022172245</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0001272064501690137</v>
+        <v>0.001127319489667757</v>
       </c>
       <c r="E66" t="n">
-        <v>8.500788061177745e-08</v>
+        <v>4.60877776426619e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>0.870390916069531</v>
+        <v>0.9639996174153314</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT43623.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9758411088097753</v>
+        <v>0.9405675145907292</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0240698858113972</v>
+        <v>0.05936596799489301</v>
       </c>
       <c r="D67" t="n">
-        <v>8.895970403890539e-05</v>
+        <v>6.642101679079813e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>4.567478858399065e-08</v>
+        <v>9.639758700634797e-08</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9758411088097753</v>
+        <v>0.9405675145907292</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2591,55 +2591,55 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT449.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4963871906928057</v>
+        <v>0.9592038522843206</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4987733291646733</v>
+        <v>0.04075362774778496</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004839230607962772</v>
+        <v>4.249484376397556e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>2.495345583678358e-07</v>
+        <v>2.512413040587858e-08</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4987733291646733</v>
+        <v>0.9592038522843206</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>o__Mycobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>o__Mycobacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT43934.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9996565873752565</v>
+        <v>0.9635327744440517</v>
       </c>
       <c r="C69" t="n">
-        <v>0.000112323754260658</v>
+        <v>0.03458010722415735</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0001917907158939595</v>
+        <v>0.001886975047182225</v>
       </c>
       <c r="E69" t="n">
-        <v>3.929815458886263e-05</v>
+        <v>1.432846087132378e-07</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9996565873752565</v>
+        <v>0.9635327744440517</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2655,23 +2655,23 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT441.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9787815950954366</v>
+        <v>0.696026741786911</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02067145949562034</v>
+        <v>0.2604408196552245</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0005466768816165787</v>
+        <v>0.04352983946990241</v>
       </c>
       <c r="E70" t="n">
-        <v>2.685273265116105e-07</v>
+        <v>2.599087961883115e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9787815950954366</v>
+        <v>0.696026741786911</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2680,30 +2680,30 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT444.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9630466138196925</v>
+        <v>0.9486723207103301</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03662849880239907</v>
+        <v>0.05125877058546779</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0003246666346640294</v>
+        <v>6.880749846423848e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>2.207432445202434e-07</v>
+        <v>1.012057378686181e-07</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9630466138196925</v>
+        <v>0.9486723207103301</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2719,23 +2719,23 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT445.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8920229999274655</v>
+        <v>0.870390916069531</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1079394533576225</v>
+        <v>0.1294817924724195</v>
       </c>
       <c r="D72" t="n">
-        <v>3.751619224396976e-05</v>
+        <v>0.0001272064501690137</v>
       </c>
       <c r="E72" t="n">
-        <v>3.052266828857602e-08</v>
+        <v>8.500788061177745e-08</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8920229999274655</v>
+        <v>0.870390916069531</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2751,23 +2751,23 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT455.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.7661211808455478</v>
+        <v>0.9970639581445436</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2299592319669351</v>
+        <v>0.002875858892086516</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003919019786859274</v>
+        <v>6.007234973545409e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>5.674006578287071e-07</v>
+        <v>1.106136341680895e-07</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7661211808455478</v>
+        <v>0.9970639581445436</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2776,30 +2776,30 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>o__Actinomycetales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.8736728560261955</v>
+        <v>0.9758411088097753</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1217127953454427</v>
+        <v>0.0240698858113972</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004613766187187054</v>
+        <v>8.895970403890539e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>5.824411747223647e-07</v>
+        <v>4.567478858399065e-08</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8736728560261955</v>
+        <v>0.9758411088097753</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2815,23 +2815,23 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9345940940629733</v>
+        <v>0.997377410233551</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06523700401063985</v>
+        <v>0.002550189019197382</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0001688518285551698</v>
+        <v>7.160013010597933e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>5.009783167479758e-08</v>
+        <v>8.006171457390686e-07</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9345940940629733</v>
+        <v>0.997377410233551</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2847,55 +2847,55 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT449.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9966092227304532</v>
+        <v>0.4963871906928057</v>
       </c>
       <c r="C76" t="n">
-        <v>0.003338790671543679</v>
+        <v>0.4987733291646733</v>
       </c>
       <c r="D76" t="n">
-        <v>5.134500247140405e-05</v>
+        <v>0.004839230607962772</v>
       </c>
       <c r="E76" t="n">
-        <v>6.415955317691859e-07</v>
+        <v>2.495345583678358e-07</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9966092227304532</v>
+        <v>0.4987733291646733</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Mycobacteriales</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Mycobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT44961.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9971884216425386</v>
+        <v>0.9996565873752565</v>
       </c>
       <c r="C77" t="n">
-        <v>1.861822822565364e-05</v>
+        <v>0.000112323754260658</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002313486886715571</v>
+        <v>0.0001917907158939595</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0004794732425200013</v>
+        <v>3.929815458886263e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9971884216425386</v>
+        <v>0.9996565873752565</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2911,23 +2911,23 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT450.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9723776128942524</v>
+        <v>0.9787815950954366</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02758020979286447</v>
+        <v>0.02067145949562034</v>
       </c>
       <c r="D78" t="n">
-        <v>2.119427735236742e-05</v>
+        <v>0.0005466768816165787</v>
       </c>
       <c r="E78" t="n">
-        <v>2.098303553075389e-05</v>
+        <v>2.685273265116105e-07</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9723776128942524</v>
+        <v>0.9787815950954366</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2943,23 +2943,23 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT452.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9410008433294833</v>
+        <v>0.9630466138196925</v>
       </c>
       <c r="C79" t="n">
-        <v>0.05888631258185857</v>
+        <v>0.03662849880239907</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0001127451495991017</v>
+        <v>0.0003246666346640294</v>
       </c>
       <c r="E79" t="n">
-        <v>9.893905896629387e-08</v>
+        <v>2.207432445202434e-07</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9410008433294833</v>
+        <v>0.9630466138196925</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2975,23 +2975,23 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT453.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9730521084614643</v>
+        <v>0.8920229999274655</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02483043155528505</v>
+        <v>0.1079394533576225</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00211614704870883</v>
+        <v>3.751619224396976e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>1.312934541763953e-06</v>
+        <v>3.052266828857602e-08</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9730521084614643</v>
+        <v>0.8920229999274655</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3007,23 +3007,23 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT455.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.8856325412792138</v>
+        <v>0.7661211808455478</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1011316001561578</v>
+        <v>0.2299592319669351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01323529946987979</v>
+        <v>0.003919019786859274</v>
       </c>
       <c r="E81" t="n">
-        <v>5.590947485661544e-07</v>
+        <v>5.674006578287071e-07</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8856325412792138</v>
+        <v>0.7661211808455478</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3032,30 +3032,30 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8620863711095922</v>
+        <v>0.8736728560261955</v>
       </c>
       <c r="C82" t="n">
-        <v>0.12475506234106</v>
+        <v>0.1217127953454427</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01315661383714694</v>
+        <v>0.004613766187187054</v>
       </c>
       <c r="E82" t="n">
-        <v>1.952712200915668e-06</v>
+        <v>5.824411747223647e-07</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8620863711095922</v>
+        <v>0.8736728560261955</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3071,23 +3071,23 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT457.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9966270887887062</v>
+        <v>0.9345940940629733</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0003008215120111087</v>
+        <v>0.06523700401063985</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00271576984313433</v>
+        <v>0.0001688518285551698</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000356319856148419</v>
+        <v>5.009783167479758e-08</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9966270887887062</v>
+        <v>0.9345940940629733</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3103,23 +3103,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT4577.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.992143513550228</v>
+        <v>0.9966092227304532</v>
       </c>
       <c r="C84" t="n">
-        <v>0.007076986274349164</v>
+        <v>0.003338790671543679</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0007765273032569099</v>
+        <v>5.134500247140405e-05</v>
       </c>
       <c r="E84" t="n">
-        <v>2.972872165907226e-06</v>
+        <v>6.415955317691859e-07</v>
       </c>
       <c r="F84" t="n">
-        <v>0.992143513550228</v>
+        <v>0.9966092227304532</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3135,23 +3135,23 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT45829.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8621383800067983</v>
+        <v>0.9881079654971107</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1179535938807808</v>
+        <v>0.01088713580639266</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01990398252493053</v>
+        <v>0.001004404821089704</v>
       </c>
       <c r="E85" t="n">
-        <v>4.043587490251077e-06</v>
+        <v>4.938754069890059e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8621383800067983</v>
+        <v>0.9881079654971107</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3167,23 +3167,23 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT459.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9960188038389881</v>
+        <v>0.9774825765965912</v>
       </c>
       <c r="C86" t="n">
-        <v>0.003917838110023774</v>
+        <v>0.01782366625088455</v>
       </c>
       <c r="D86" t="n">
-        <v>6.321865075231985e-05</v>
+        <v>0.004693165074214051</v>
       </c>
       <c r="E86" t="n">
-        <v>1.394002357542634e-07</v>
+        <v>5.920783102658431e-07</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9960188038389881</v>
+        <v>0.9774825765965912</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3199,23 +3199,23 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.8601967597692336</v>
+        <v>0.9971884216425386</v>
       </c>
       <c r="C87" t="n">
-        <v>0.12395340928143</v>
+        <v>1.861822822565364e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01584450810682179</v>
+        <v>0.002313486886715571</v>
       </c>
       <c r="E87" t="n">
-        <v>5.322842514591087e-06</v>
+        <v>0.0004794732425200013</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8601967597692336</v>
+        <v>0.9971884216425386</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT462.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9689608715288091</v>
+        <v>0.9723776128942524</v>
       </c>
       <c r="C88" t="n">
-        <v>0.03084478787886785</v>
+        <v>0.02758020979286447</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0001940792914630184</v>
+        <v>2.119427735236742e-05</v>
       </c>
       <c r="E88" t="n">
-        <v>2.613008598707406e-07</v>
+        <v>2.098303553075389e-05</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9689608715288091</v>
+        <v>0.9723776128942524</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3263,23 +3263,23 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47464.fa</t>
+          <t>even_MAG-GUT463.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9589383316775755</v>
+        <v>0.9410008433294833</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0401787123952593</v>
+        <v>0.05888631258185857</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0008828252838063568</v>
+        <v>0.0001127451495991017</v>
       </c>
       <c r="E89" t="n">
-        <v>1.306433589905678e-07</v>
+        <v>9.893905896629387e-08</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9589383316775755</v>
+        <v>0.9410008433294833</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3295,23 +3295,23 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT464.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9982080000697212</v>
+        <v>0.9905611615129535</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001581434403851757</v>
+        <v>0.009245700616455637</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0002071555679653272</v>
+        <v>0.0001929093047354999</v>
       </c>
       <c r="E90" t="n">
-        <v>3.409958461638784e-06</v>
+        <v>2.285658553650144e-07</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9982080000697212</v>
+        <v>0.9905611615129535</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3327,23 +3327,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT46486.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9045597819856485</v>
+        <v>0.9730521084614643</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09451364680669208</v>
+        <v>0.02483043155528505</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0009264577660838947</v>
+        <v>0.00211614704870883</v>
       </c>
       <c r="E91" t="n">
-        <v>1.134415753704643e-07</v>
+        <v>1.312934541763953e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9045597819856485</v>
+        <v>0.9730521084614643</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3359,279 +3359,279 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48681.fa</t>
+          <t>even_MAG-GUT46493.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02109249910837824</v>
+        <v>0.9893251779094087</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0007083807792969657</v>
+        <v>0.01008098838957338</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9773401659452738</v>
+        <v>0.0005936594946820132</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0008589541670509231</v>
+        <v>1.742063359724857e-07</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9773401659452738</v>
+        <v>0.9893251779094087</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48721.fa</t>
+          <t>even_MAG-GUT465.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01742136560857531</v>
+        <v>0.8856325412792138</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001936524855484907</v>
+        <v>0.1011316001561578</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9785057367888454</v>
+        <v>0.01323529946987979</v>
       </c>
       <c r="E93" t="n">
-        <v>0.002136372747094335</v>
+        <v>5.590947485661544e-07</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9785057367888454</v>
+        <v>0.8856325412792138</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48763.fa</t>
+          <t>even_MAG-GUT467.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.116154797355976</v>
+        <v>0.8620863711095922</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0002204995822764072</v>
+        <v>0.12475506234106</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8825237409445019</v>
+        <v>0.01315661383714694</v>
       </c>
       <c r="E94" t="n">
-        <v>0.001100962117245776</v>
+        <v>1.952712200915668e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8825237409445019</v>
+        <v>0.8620863711095922</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48801.fa</t>
+          <t>even_MAG-GUT46760.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.07405623444552857</v>
+        <v>0.992143513550228</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0006358071562731146</v>
+        <v>0.007076986274349164</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9229592865410223</v>
+        <v>0.0007765273032569099</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002348671857175895</v>
+        <v>2.972872165907226e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9229592865410223</v>
+        <v>0.992143513550228</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48805.fa</t>
+          <t>even_MAG-GUT468.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.001275589009727172</v>
+        <v>0.8621383800067983</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9986119891739442</v>
+        <v>0.1179535938807808</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001117540446188038</v>
+        <v>0.01990398252493053</v>
       </c>
       <c r="E96" t="n">
-        <v>6.677717098095681e-07</v>
+        <v>4.043587490251077e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9986119891739442</v>
+        <v>0.8621383800067983</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>o__Mycobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>o__Mycobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48852.fa</t>
+          <t>even_MAG-GUT469.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.08030765906754987</v>
+        <v>0.9960188038389881</v>
       </c>
       <c r="C97" t="n">
-        <v>7.887430196252887e-05</v>
+        <v>0.003917838110023774</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9172988690395916</v>
+        <v>6.321865075231985e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>0.002314597590896009</v>
+        <v>1.394002357542634e-07</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9172988690395916</v>
+        <v>0.9960188038389881</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48995.fa</t>
+          <t>even_MAG-GUT470.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.01760531481472181</v>
+        <v>0.8601967597692336</v>
       </c>
       <c r="C98" t="n">
-        <v>0.001228701096874464</v>
+        <v>0.12395340928143</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9811558853489591</v>
+        <v>0.01584450810682179</v>
       </c>
       <c r="E98" t="n">
-        <v>1.009873944462543e-05</v>
+        <v>5.322842514591087e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9811558853489591</v>
+        <v>0.8601967597692336</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49009.fa</t>
+          <t>even_MAG-GUT471.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4212875035780523</v>
+        <v>0.9689608715288091</v>
       </c>
       <c r="C99" t="n">
-        <v>7.364631992258631e-05</v>
+        <v>0.03084478787886785</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5782622804332835</v>
+        <v>0.0001940792914630184</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0003765696687415263</v>
+        <v>2.613008598707406e-07</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5782622804332835</v>
+        <v>0.9689608715288091</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49041.fa</t>
+          <t>even_MAG-GUT47464.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5689524901828955</v>
+        <v>0.9589383316775755</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0007559211995930721</v>
+        <v>0.0401787123952593</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4302877754948663</v>
+        <v>0.0008828252838063568</v>
       </c>
       <c r="E100" t="n">
-        <v>3.813122645007364e-06</v>
+        <v>1.306433589905678e-07</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5689524901828955</v>
+        <v>0.9589383316775755</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3640,158 +3640,158 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>o__Actinomycetales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49046.fa</t>
+          <t>even_MAG-GUT47585.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0001047146295504941</v>
+        <v>0.9982080000697212</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9994367130528071</v>
+        <v>0.001581434403851757</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0004577428621501404</v>
+        <v>0.0002071555679653272</v>
       </c>
       <c r="E101" t="n">
-        <v>8.294554921734239e-07</v>
+        <v>3.409958461638784e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9994367130528071</v>
+        <v>0.9982080000697212</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>o__Mycobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>o__Mycobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49058.fa</t>
+          <t>even_MAG-GUT47777.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1598001084641621</v>
+        <v>0.9973710283400355</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0059408794067949</v>
+        <v>0.002607049465876789</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8342524280114347</v>
+        <v>2.036612393082075e-05</v>
       </c>
       <c r="E102" t="n">
-        <v>6.584117608260525e-06</v>
+        <v>1.55607015689438e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8342524280114347</v>
+        <v>0.9973710283400355</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49079.fa</t>
+          <t>even_MAG-GUT48579.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2189314875336073</v>
+        <v>0.9045597819856485</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001696131032559754</v>
+        <v>0.09451364680669208</v>
       </c>
       <c r="D103" t="n">
-        <v>0.776332185843981</v>
+        <v>0.0009264577660838947</v>
       </c>
       <c r="E103" t="n">
-        <v>0.003040195589851932</v>
+        <v>1.134415753704643e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>0.776332185843981</v>
+        <v>0.9045597819856485</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49243.fa</t>
+          <t>even_MAG-GUT48681.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.5092195930209776</v>
+        <v>0.02109249910837824</v>
       </c>
       <c r="C104" t="n">
-        <v>2.445153331402495e-05</v>
+        <v>0.0007083807792969657</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4905635290314349</v>
+        <v>0.9773401659452738</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0001924264142733976</v>
+        <v>0.0008589541670509231</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5092195930209776</v>
+        <v>0.9773401659452738</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>o__Actinomycetales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49261.fa</t>
+          <t>even_MAG-GUT48721.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.04205596398463612</v>
+        <v>0.01742136560857531</v>
       </c>
       <c r="C105" t="n">
-        <v>0.004721470217783088</v>
+        <v>0.001936524855484907</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9494643217949755</v>
+        <v>0.9785057367888454</v>
       </c>
       <c r="E105" t="n">
-        <v>0.003758244002605209</v>
+        <v>0.002136372747094335</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9494643217949755</v>
+        <v>0.9785057367888454</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3807,23 +3807,23 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49394.fa</t>
+          <t>even_MAG-GUT48763.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.06660657127728159</v>
+        <v>0.116154797355976</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0001643919483295511</v>
+        <v>0.0002204995822764072</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9323565961823245</v>
+        <v>0.8825237409445019</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0008724405920643581</v>
+        <v>0.001100962117245776</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9323565961823245</v>
+        <v>0.8825237409445019</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3839,23 +3839,23 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49423.fa</t>
+          <t>even_MAG-GUT48801.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.09858320377623248</v>
+        <v>0.07405623444552857</v>
       </c>
       <c r="C107" t="n">
-        <v>0.002111288020551437</v>
+        <v>0.0006358071562731146</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8986185074100606</v>
+        <v>0.9229592865410223</v>
       </c>
       <c r="E107" t="n">
-        <v>0.000687000793155598</v>
+        <v>0.002348671857175895</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8986185074100606</v>
+        <v>0.9229592865410223</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3871,55 +3871,55 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49507.fa</t>
+          <t>even_MAG-GUT48805.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.06790159063820767</v>
+        <v>0.001275589009727172</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0001251931480720316</v>
+        <v>0.9986119891739442</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9318457694906965</v>
+        <v>0.0001117540446188038</v>
       </c>
       <c r="E108" t="n">
-        <v>0.000127446723023702</v>
+        <v>6.677717098095681e-07</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9318457694906965</v>
+        <v>0.9986119891739442</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Mycobacteriales</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Mycobacteriales</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49537.fa</t>
+          <t>even_MAG-GUT48852.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1220071476507624</v>
+        <v>0.08030765906754987</v>
       </c>
       <c r="C109" t="n">
-        <v>0.001292162906882588</v>
+        <v>7.887430196252887e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8743825459428167</v>
+        <v>0.9172988690395916</v>
       </c>
       <c r="E109" t="n">
-        <v>0.002318143499538269</v>
+        <v>0.002314597590896009</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8743825459428167</v>
+        <v>0.9172988690395916</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3935,23 +3935,23 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49543.fa</t>
+          <t>even_MAG-GUT48995.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.03047103863646902</v>
+        <v>0.01760531481472181</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001213906580712083</v>
+        <v>0.001228701096874464</v>
       </c>
       <c r="D110" t="n">
-        <v>0.966170834049224</v>
+        <v>0.9811558853489591</v>
       </c>
       <c r="E110" t="n">
-        <v>0.003236736656235722</v>
+        <v>1.009873944462543e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>0.966170834049224</v>
+        <v>0.9811558853489591</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3967,55 +3967,55 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT49009.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9975531982160506</v>
+        <v>0.4212875035780523</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0002471247831161124</v>
+        <v>7.364631992258631e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001919361120464858</v>
+        <v>0.5782622804332835</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0002803158803684013</v>
+        <v>0.0003765696687415263</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9975531982160506</v>
+        <v>0.5782622804332835</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT49041.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9965078612331523</v>
+        <v>0.5689524901828955</v>
       </c>
       <c r="C112" t="n">
-        <v>1.791958752513109e-05</v>
+        <v>0.0007559211995930721</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003186799328480597</v>
+        <v>0.4302877754948663</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0002874198508419498</v>
+        <v>3.813122645007364e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9965078612331523</v>
+        <v>0.5689524901828955</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4024,158 +4024,158 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT49046.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9990254930827523</v>
+        <v>0.0001047146295504941</v>
       </c>
       <c r="C113" t="n">
-        <v>0.000794345605526944</v>
+        <v>0.9994367130528071</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0001771986824632855</v>
+        <v>0.0004577428621501404</v>
       </c>
       <c r="E113" t="n">
-        <v>2.962629257635731e-06</v>
+        <v>8.294554921734239e-07</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9990254930827523</v>
+        <v>0.9994367130528071</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Mycobacteriales</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Mycobacteriales</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59472.fa</t>
+          <t>even_MAG-GUT49058.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9968905899772966</v>
+        <v>0.1598001084641621</v>
       </c>
       <c r="C114" t="n">
-        <v>5.938560989388908e-06</v>
+        <v>0.0059408794067949</v>
       </c>
       <c r="D114" t="n">
-        <v>0.002706655693738318</v>
+        <v>0.8342524280114347</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0003968157679757124</v>
+        <v>6.584117608260525e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9968905899772966</v>
+        <v>0.8342524280114347</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62023.fa</t>
+          <t>even_MAG-GUT49079.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9973672280303802</v>
+        <v>0.2189314875336073</v>
       </c>
       <c r="C115" t="n">
-        <v>1.376529918017206e-05</v>
+        <v>0.001696131032559754</v>
       </c>
       <c r="D115" t="n">
-        <v>0.002234606389707369</v>
+        <v>0.776332185843981</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0003844002807322749</v>
+        <v>0.003040195589851932</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9973672280303802</v>
+        <v>0.776332185843981</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6244.fa</t>
+          <t>even_MAG-GUT49243.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.2598388235703174</v>
+        <v>0.5092195930209776</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0002097525473996911</v>
+        <v>2.445153331402495e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7394631941581088</v>
+        <v>0.4905635290314349</v>
       </c>
       <c r="E116" t="n">
-        <v>0.000488229724174316</v>
+        <v>0.0001924264142733976</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7394631941581088</v>
+        <v>0.5092195930209776</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6247.fa</t>
+          <t>even_MAG-GUT49261.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.02296341374386808</v>
+        <v>0.04205596398463612</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0005128327190992405</v>
+        <v>0.004721470217783088</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9762353061680799</v>
+        <v>0.9494643217949755</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0002884473689528861</v>
+        <v>0.003758244002605209</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9762353061680799</v>
+        <v>0.9494643217949755</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4191,23 +4191,23 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6251.fa</t>
+          <t>even_MAG-GUT49394.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.06767333032763428</v>
+        <v>0.06660657127728159</v>
       </c>
       <c r="C118" t="n">
-        <v>0.002451277747029404</v>
+        <v>0.0001643919483295511</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9278766137171881</v>
+        <v>0.9323565961823245</v>
       </c>
       <c r="E118" t="n">
-        <v>0.001998778208148256</v>
+        <v>0.0008724405920643581</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9278766137171881</v>
+        <v>0.9323565961823245</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4223,23 +4223,23 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6256.fa</t>
+          <t>even_MAG-GUT49423.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.04021610804719163</v>
+        <v>0.09858320377623248</v>
       </c>
       <c r="C119" t="n">
-        <v>0.000374884272561022</v>
+        <v>0.002111288020551437</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9591310271567788</v>
+        <v>0.8986185074100606</v>
       </c>
       <c r="E119" t="n">
-        <v>0.000277980523468575</v>
+        <v>0.000687000793155598</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9591310271567788</v>
+        <v>0.8986185074100606</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4255,23 +4255,23 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6261.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.06822550790757555</v>
+        <v>0.06790159063820767</v>
       </c>
       <c r="C120" t="n">
-        <v>0.005552258263265065</v>
+        <v>0.0001251931480720316</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9231227248305192</v>
+        <v>0.9318457694906965</v>
       </c>
       <c r="E120" t="n">
-        <v>0.003099508998640216</v>
+        <v>0.000127446723023702</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9231227248305192</v>
+        <v>0.9318457694906965</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4287,23 +4287,23 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6265.fa</t>
+          <t>even_MAG-GUT49537.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1709432754280573</v>
+        <v>0.1220071476507624</v>
       </c>
       <c r="C121" t="n">
-        <v>7.195225122387115e-05</v>
+        <v>0.001292162906882588</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8282902388493729</v>
+        <v>0.8743825459428167</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0006945334713461213</v>
+        <v>0.002318143499538269</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8282902388493729</v>
+        <v>0.8743825459428167</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4319,23 +4319,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6273.fa</t>
+          <t>even_MAG-GUT49543.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1709432754280573</v>
+        <v>0.03047103863646902</v>
       </c>
       <c r="C122" t="n">
-        <v>7.195225122387115e-05</v>
+        <v>0.0001213906580712083</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8282902388493729</v>
+        <v>0.966170834049224</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0006945334713461213</v>
+        <v>0.003236736656235722</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8282902388493729</v>
+        <v>0.966170834049224</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4351,119 +4351,119 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6280.fa</t>
+          <t>even_MAG-GUT54955.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2174295444663274</v>
+        <v>0.9985228271549094</v>
       </c>
       <c r="C123" t="n">
-        <v>0.001097666064222933</v>
+        <v>0.001439562274800815</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7797346804005021</v>
+        <v>3.670384561972586e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>0.001738109068947472</v>
+        <v>9.067246701397735e-07</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7797346804005021</v>
+        <v>0.9985228271549094</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6286.fa</t>
+          <t>even_MAG-GUT55688.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1709432754280573</v>
+        <v>0.9965078612331523</v>
       </c>
       <c r="C124" t="n">
-        <v>7.195225122387115e-05</v>
+        <v>1.791958752513109e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8282902388493729</v>
+        <v>0.003186799328480597</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0006945334713461213</v>
+        <v>0.0002874198508419498</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8282902388493729</v>
+        <v>0.9965078612331523</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6290.fa</t>
+          <t>even_MAG-GUT55792.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.2174295444663274</v>
+        <v>0.9988218168788662</v>
       </c>
       <c r="C125" t="n">
-        <v>0.001097666064222933</v>
+        <v>0.0009834341010222416</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7797346804005021</v>
+        <v>0.0001936183068869414</v>
       </c>
       <c r="E125" t="n">
-        <v>0.001738109068947472</v>
+        <v>1.13071322460071e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7797346804005021</v>
+        <v>0.9988218168788662</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT56059.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9320812197691442</v>
+        <v>0.9990254930827523</v>
       </c>
       <c r="C126" t="n">
-        <v>0.06728920391998708</v>
+        <v>0.000794345605526944</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0006287868487390266</v>
+        <v>0.0001771986824632855</v>
       </c>
       <c r="E126" t="n">
-        <v>7.894621297210502e-07</v>
+        <v>2.962629257635731e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9320812197691442</v>
+        <v>0.9990254930827523</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4479,23 +4479,23 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT59472.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9949401273837243</v>
+        <v>0.9968905899772966</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0001827067163334796</v>
+        <v>5.938560989388908e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>0.004063590598645556</v>
+        <v>0.002706655693738318</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0008135753012966678</v>
+        <v>0.0003968157679757124</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9949401273837243</v>
+        <v>0.9968905899772966</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4511,23 +4511,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67012.fa</t>
+          <t>even_MAG-GUT62023.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9344487350188093</v>
+        <v>0.9973672280303802</v>
       </c>
       <c r="C128" t="n">
-        <v>0.06539174478034858</v>
+        <v>1.376529918017206e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0001594783184464905</v>
+        <v>0.002234606389707369</v>
       </c>
       <c r="E128" t="n">
-        <v>4.188239558876475e-08</v>
+        <v>0.0003844002807322749</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9344487350188093</v>
+        <v>0.9973672280303802</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4543,343 +4543,343 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT6244.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9981058509737117</v>
+        <v>0.2598388235703174</v>
       </c>
       <c r="C129" t="n">
-        <v>9.405651667103986e-05</v>
+        <v>0.0002097525473996911</v>
       </c>
       <c r="D129" t="n">
-        <v>0.001468530599811854</v>
+        <v>0.7394631941581088</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0003315619098053263</v>
+        <v>0.000488229724174316</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9981058509737117</v>
+        <v>0.7394631941581088</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT6247.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9979237898640732</v>
+        <v>0.02296341374386808</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0003055186621355551</v>
+        <v>0.0005128327190992405</v>
       </c>
       <c r="D130" t="n">
-        <v>0.001683091045040516</v>
+        <v>0.9762353061680799</v>
       </c>
       <c r="E130" t="n">
-        <v>8.760042875071981e-05</v>
+        <v>0.0002884473689528861</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9979237898640732</v>
+        <v>0.9762353061680799</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT6251.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9965948082798854</v>
+        <v>0.06767333032763428</v>
       </c>
       <c r="C131" t="n">
-        <v>3.296570665396893e-06</v>
+        <v>0.002451277747029404</v>
       </c>
       <c r="D131" t="n">
-        <v>0.003001546438544128</v>
+        <v>0.9278766137171881</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0004003487109049421</v>
+        <v>0.001998778208148256</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9965948082798854</v>
+        <v>0.9278766137171881</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67779.fa</t>
+          <t>even_MAG-GUT6256.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.997864674667683</v>
+        <v>0.04021610804719163</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0001317841353889755</v>
+        <v>0.000374884272561022</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001272628531904615</v>
+        <v>0.9591310271567788</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0007309126650233073</v>
+        <v>0.000277980523468575</v>
       </c>
       <c r="F132" t="n">
-        <v>0.997864674667683</v>
+        <v>0.9591310271567788</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67830.fa</t>
+          <t>even_MAG-GUT6261.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9975224610716465</v>
+        <v>0.06822550790757555</v>
       </c>
       <c r="C133" t="n">
-        <v>4.199152584652352e-05</v>
+        <v>0.005552258263265065</v>
       </c>
       <c r="D133" t="n">
-        <v>0.002321072223832646</v>
+        <v>0.9231227248305192</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0001144751786742245</v>
+        <v>0.003099508998640216</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9975224610716465</v>
+        <v>0.9231227248305192</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT6265.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9986719289478287</v>
+        <v>0.1709432754280573</v>
       </c>
       <c r="C134" t="n">
-        <v>4.35967413711252e-05</v>
+        <v>7.195225122387115e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>0.001155352321912591</v>
+        <v>0.8282902388493729</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0001291219888875334</v>
+        <v>0.0006945334713461213</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9986719289478287</v>
+        <v>0.8282902388493729</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT6273.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9780788386156425</v>
+        <v>0.1709432754280573</v>
       </c>
       <c r="C135" t="n">
-        <v>0.02164667425047317</v>
+        <v>7.195225122387115e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>0.00027430868414492</v>
+        <v>0.8282902388493729</v>
       </c>
       <c r="E135" t="n">
-        <v>1.784497393894653e-07</v>
+        <v>0.0006945334713461213</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9780788386156425</v>
+        <v>0.8282902388493729</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT6280.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9952265019497246</v>
+        <v>0.2174295444663274</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0005263543321921526</v>
+        <v>0.001097666064222933</v>
       </c>
       <c r="D136" t="n">
-        <v>0.003932710296473901</v>
+        <v>0.7797346804005021</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0003144334216093132</v>
+        <v>0.001738109068947472</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9952265019497246</v>
+        <v>0.7797346804005021</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68007.fa</t>
+          <t>even_MAG-GUT6286.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9977139152659423</v>
+        <v>0.1709432754280573</v>
       </c>
       <c r="C137" t="n">
-        <v>2.812792444516648e-06</v>
+        <v>7.195225122387115e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>0.002042065482490527</v>
+        <v>0.8282902388493729</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0002412064591225718</v>
+        <v>0.0006945334713461213</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9977139152659423</v>
+        <v>0.8282902388493729</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT6290.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.999154360399787</v>
+        <v>0.2174295444663274</v>
       </c>
       <c r="C138" t="n">
-        <v>4.69238275906128e-05</v>
+        <v>0.001097666064222933</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0005220950603927479</v>
+        <v>0.7797346804005021</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0002766207122296301</v>
+        <v>0.001738109068947472</v>
       </c>
       <c r="F138" t="n">
-        <v>0.999154360399787</v>
+        <v>0.7797346804005021</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT64457.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9973520547104159</v>
+        <v>0.9320812197691442</v>
       </c>
       <c r="C139" t="n">
-        <v>6.160036566754189e-05</v>
+        <v>0.06728920391998708</v>
       </c>
       <c r="D139" t="n">
-        <v>0.002167065553951336</v>
+        <v>0.0006287868487390266</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0004192793699652426</v>
+        <v>7.894621297210502e-07</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9973520547104159</v>
+        <v>0.9320812197691442</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4895,23 +4895,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT66991.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9881733611417358</v>
+        <v>0.9949401273837243</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0111790583844838</v>
+        <v>0.0001827067163334796</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006473376677806647</v>
+        <v>0.004063590598645556</v>
       </c>
       <c r="E140" t="n">
-        <v>2.42805999710944e-07</v>
+        <v>0.0008135753012966678</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9881733611417358</v>
+        <v>0.9949401273837243</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4927,23 +4927,23 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT67012.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9968739036992776</v>
+        <v>0.9344487350188093</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0001970086855913494</v>
+        <v>0.06539174478034858</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002680980325662151</v>
+        <v>0.0001594783184464905</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0002481072894688886</v>
+        <v>4.188239558876475e-08</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9968739036992776</v>
+        <v>0.9344487350188093</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4959,55 +4959,55 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68245.fa</t>
+          <t>even_MAG-GUT67029.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1025560983762586</v>
+        <v>0.9396010721426511</v>
       </c>
       <c r="C142" t="n">
-        <v>3.550128749831741e-06</v>
+        <v>0.05740094101976562</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8953168917024381</v>
+        <v>0.002997796283898902</v>
       </c>
       <c r="E142" t="n">
-        <v>0.002123459792553426</v>
+        <v>1.90553684395302e-07</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8953168917024381</v>
+        <v>0.9396010721426511</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT67120.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.9942681153484115</v>
+        <v>0.9981058509737117</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0004014400485620943</v>
+        <v>9.405651667103986e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.004727058522799919</v>
+        <v>0.001468530599811854</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0006033860802263292</v>
+        <v>0.0003315619098053263</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9942681153484115</v>
+        <v>0.9981058509737117</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5023,23 +5023,23 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT67723.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.9869386067697822</v>
+        <v>0.9979237898640732</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01264830837967952</v>
+        <v>0.0003055186621355551</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0004128998387213583</v>
+        <v>0.001683091045040516</v>
       </c>
       <c r="E144" t="n">
-        <v>1.850118170534697e-07</v>
+        <v>8.760042875071981e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9869386067697822</v>
+        <v>0.9979237898640732</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5055,23 +5055,23 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.9932763816750301</v>
+        <v>0.9965948082798854</v>
       </c>
       <c r="C145" t="n">
-        <v>4.453416631820763e-05</v>
+        <v>3.296570665396893e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>0.006528370313099996</v>
+        <v>0.003001546438544128</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0001507138455517339</v>
+        <v>0.0004003487109049421</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9932763816750301</v>
+        <v>0.9965948082798854</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5087,23 +5087,23 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT67779.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9963541044678399</v>
+        <v>0.997864674667683</v>
       </c>
       <c r="C146" t="n">
-        <v>0.003258901534683527</v>
+        <v>0.0001317841353889755</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0003859722755394246</v>
+        <v>0.001272628531904615</v>
       </c>
       <c r="E146" t="n">
-        <v>1.021721937342633e-06</v>
+        <v>0.0007309126650233073</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9963541044678399</v>
+        <v>0.997864674667683</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5119,23 +5119,23 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68968.fa</t>
+          <t>even_MAG-GUT67830.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.9948617504581659</v>
+        <v>0.9975224610716465</v>
       </c>
       <c r="C147" t="n">
-        <v>0.004988187512374139</v>
+        <v>4.199152584652352e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0001494880496025178</v>
+        <v>0.002321072223832646</v>
       </c>
       <c r="E147" t="n">
-        <v>5.73979857418951e-07</v>
+        <v>0.0001144751786742245</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9948617504581659</v>
+        <v>0.9975224610716465</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5151,23 +5151,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69048.fa</t>
+          <t>even_MAG-GUT67839.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9951940847776974</v>
+        <v>0.9986719289478287</v>
       </c>
       <c r="C148" t="n">
-        <v>1.187443565803795e-05</v>
+        <v>4.35967413711252e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.004452248294808846</v>
+        <v>0.001155352321912591</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0003417924918357448</v>
+        <v>0.0001291219888875334</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9951940847776974</v>
+        <v>0.9986719289478287</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5183,23 +5183,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69117.fa</t>
+          <t>even_MAG-GUT67975.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9726029658270812</v>
+        <v>0.9780788386156425</v>
       </c>
       <c r="C149" t="n">
-        <v>0.02707539247466955</v>
+        <v>0.02164667425047317</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0003213155776385184</v>
+        <v>0.00027430868414492</v>
       </c>
       <c r="E149" t="n">
-        <v>3.261206108321653e-07</v>
+        <v>1.784497393894653e-07</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9726029658270812</v>
+        <v>0.9780788386156425</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5215,23 +5215,23 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69121.fa</t>
+          <t>even_MAG-GUT67977.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.9781106885279477</v>
+        <v>0.9952265019497246</v>
       </c>
       <c r="C150" t="n">
-        <v>0.02178285371655034</v>
+        <v>0.0005263543321921526</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0001063679884463275</v>
+        <v>0.003932710296473901</v>
       </c>
       <c r="E150" t="n">
-        <v>8.976705566640479e-08</v>
+        <v>0.0003144334216093132</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9781106885279477</v>
+        <v>0.9952265019497246</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5247,23 +5247,23 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69224.fa</t>
+          <t>even_MAG-GUT68007.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9149274335943901</v>
+        <v>0.9977139152659423</v>
       </c>
       <c r="C151" t="n">
-        <v>0.07909404881160062</v>
+        <v>2.812792444516648e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>0.005977923107974639</v>
+        <v>0.002042065482490527</v>
       </c>
       <c r="E151" t="n">
-        <v>5.944860346849965e-07</v>
+        <v>0.0002412064591225718</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9149274335943901</v>
+        <v>0.9977139152659423</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5279,23 +5279,23 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69229.fa</t>
+          <t>even_MAG-GUT68023.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.9885665281341554</v>
+        <v>0.999154360399787</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0113813039692469</v>
+        <v>4.69238275906128e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>5.20567205379641e-05</v>
+        <v>0.0005220950603927479</v>
       </c>
       <c r="E152" t="n">
-        <v>1.111760596943279e-07</v>
+        <v>0.0002766207122296301</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9885665281341554</v>
+        <v>0.999154360399787</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5311,23 +5311,23 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69434.fa</t>
+          <t>even_MAG-GUT68157.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9915971911218253</v>
+        <v>0.9973520547104159</v>
       </c>
       <c r="C153" t="n">
-        <v>0.007939807997793348</v>
+        <v>6.160036566754189e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0004624435786875454</v>
+        <v>0.002167065553951336</v>
       </c>
       <c r="E153" t="n">
-        <v>5.573016937724672e-07</v>
+        <v>0.0004192793699652426</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9915971911218253</v>
+        <v>0.9973520547104159</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5343,23 +5343,23 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69447.fa</t>
+          <t>even_MAG-GUT68189.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.9766649557846533</v>
+        <v>0.9881733611417358</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02313593604086077</v>
+        <v>0.0111790583844838</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0001986586220958496</v>
+        <v>0.0006473376677806647</v>
       </c>
       <c r="E154" t="n">
-        <v>4.495523900301685e-07</v>
+        <v>2.42805999710944e-07</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9766649557846533</v>
+        <v>0.9881733611417358</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5375,23 +5375,23 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT68190.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.9975387996956425</v>
+        <v>0.9773220740203623</v>
       </c>
       <c r="C155" t="n">
-        <v>1.40301739403557e-05</v>
+        <v>0.02233287980645169</v>
       </c>
       <c r="D155" t="n">
-        <v>0.002233302317424157</v>
+        <v>0.0003448950026425129</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0002138678129929731</v>
+        <v>1.511705434502985e-07</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9975387996956425</v>
+        <v>0.9773220740203623</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5407,23 +5407,23 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74347.fa</t>
+          <t>even_MAG-GUT68197.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9943492450531003</v>
+        <v>0.9968739036992776</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0001767352664089663</v>
+        <v>0.0001970086855913494</v>
       </c>
       <c r="D156" t="n">
-        <v>0.004648317181134957</v>
+        <v>0.002680980325662151</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0008257024993557048</v>
+        <v>0.0002481072894688886</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9943492450531003</v>
+        <v>0.9968739036992776</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5439,55 +5439,55 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7772.fa</t>
+          <t>even_MAG-GUT68245.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.9977774956190651</v>
+        <v>0.1025560983762586</v>
       </c>
       <c r="C157" t="n">
-        <v>5.844724985022552e-05</v>
+        <v>3.550128749831741e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>0.001961774504467444</v>
+        <v>0.8953168917024381</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0002022826266172359</v>
+        <v>0.002123459792553426</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9977774956190651</v>
+        <v>0.8953168917024381</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80568.fa</t>
+          <t>even_MAG-GUT68475.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.9937533329450127</v>
+        <v>0.9942681153484115</v>
       </c>
       <c r="C158" t="n">
-        <v>2.183560614124544e-05</v>
+        <v>0.0004014400485620943</v>
       </c>
       <c r="D158" t="n">
-        <v>0.005737612844063195</v>
+        <v>0.004727058522799919</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0004872186047828256</v>
+        <v>0.0006033860802263292</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9937533329450127</v>
+        <v>0.9942681153484115</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5503,23 +5503,23 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81959.fa</t>
+          <t>even_MAG-GUT68642.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.9973094252627502</v>
+        <v>0.9869386067697822</v>
       </c>
       <c r="C159" t="n">
-        <v>5.779281611393951e-05</v>
+        <v>0.01264830837967952</v>
       </c>
       <c r="D159" t="n">
-        <v>0.001816413151688732</v>
+        <v>0.0004128998387213583</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0008163687694470878</v>
+        <v>1.850118170534697e-07</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9973094252627502</v>
+        <v>0.9869386067697822</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5535,23 +5535,23 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85070.fa</t>
+          <t>even_MAG-GUT68659.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.9984401216677564</v>
+        <v>0.9932763816750301</v>
       </c>
       <c r="C160" t="n">
-        <v>0.001502547390978165</v>
+        <v>4.453416631820763e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>5.632917881235677e-05</v>
+        <v>0.006528370313099996</v>
       </c>
       <c r="E160" t="n">
-        <v>1.001762453155668e-06</v>
+        <v>0.0001507138455517339</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9984401216677564</v>
+        <v>0.9932763816750301</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5567,23 +5567,23 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86606.fa</t>
+          <t>even_MAG-GUT68697.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.997208421574135</v>
+        <v>0.9963541044678399</v>
       </c>
       <c r="C161" t="n">
-        <v>7.090553044139269e-05</v>
+        <v>0.003258901534683527</v>
       </c>
       <c r="D161" t="n">
-        <v>0.001834359630627282</v>
+        <v>0.0003859722755394246</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0008863132647962729</v>
+        <v>1.021721937342633e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>0.997208421574135</v>
+        <v>0.9963541044678399</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5599,23 +5599,23 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88052.fa</t>
+          <t>even_MAG-GUT68968.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9949732415236484</v>
+        <v>0.9948617504581659</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0003915794041832155</v>
+        <v>0.004988187512374139</v>
       </c>
       <c r="D162" t="n">
-        <v>0.003876862728977226</v>
+        <v>0.0001494880496025178</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0007583163431911043</v>
+        <v>5.73979857418951e-07</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9949732415236484</v>
+        <v>0.9948617504581659</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5631,23 +5631,23 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88444.fa</t>
+          <t>even_MAG-GUT69048.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9989999876542034</v>
+        <v>0.9951940847776974</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0007221781625388881</v>
+        <v>1.187443565803795e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0002729447120105858</v>
+        <v>0.004452248294808846</v>
       </c>
       <c r="E163" t="n">
-        <v>4.889471247135741e-06</v>
+        <v>0.0003417924918357448</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9989999876542034</v>
+        <v>0.9951940847776974</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5663,23 +5663,23 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9016.fa</t>
+          <t>even_MAG-GUT69064.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.9978693425422978</v>
+        <v>0.9904321240052413</v>
       </c>
       <c r="C164" t="n">
-        <v>0.002106182439360403</v>
+        <v>0.009416935314901278</v>
       </c>
       <c r="D164" t="n">
-        <v>2.320874227310951e-05</v>
+        <v>0.0001494917769232243</v>
       </c>
       <c r="E164" t="n">
-        <v>1.266276068874361e-06</v>
+        <v>1.448902934255476e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9978693425422978</v>
+        <v>0.9904321240052413</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5695,119 +5695,119 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91259.fa</t>
+          <t>even_MAG-GUT69117.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.05146676683773418</v>
+        <v>0.9726029658270812</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0003157880555271548</v>
+        <v>0.02707539247466955</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9466438813526752</v>
+        <v>0.0003213155776385184</v>
       </c>
       <c r="E165" t="n">
-        <v>0.001573563754063462</v>
+        <v>3.261206108321653e-07</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9466438813526752</v>
+        <v>0.9726029658270812</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91528.fa</t>
+          <t>even_MAG-GUT69121.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.03807410944082866</v>
+        <v>0.9781106885279477</v>
       </c>
       <c r="C166" t="n">
-        <v>0.001205113556857544</v>
+        <v>0.02178285371655034</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9559142086501984</v>
+        <v>0.0001063679884463275</v>
       </c>
       <c r="E166" t="n">
-        <v>0.004806568352115388</v>
+        <v>8.976705566640479e-08</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9559142086501984</v>
+        <v>0.9781106885279477</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91549.fa</t>
+          <t>even_MAG-GUT69224.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.04949758396693923</v>
+        <v>0.9149274335943901</v>
       </c>
       <c r="C167" t="n">
-        <v>0.003496947218138131</v>
+        <v>0.07909404881160062</v>
       </c>
       <c r="D167" t="n">
-        <v>0.943355006449715</v>
+        <v>0.005977923107974639</v>
       </c>
       <c r="E167" t="n">
-        <v>0.003650462365207659</v>
+        <v>5.944860346849965e-07</v>
       </c>
       <c r="F167" t="n">
-        <v>0.943355006449715</v>
+        <v>0.9149274335943901</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91633.fa</t>
+          <t>even_MAG-GUT69229.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.9920973274239856</v>
+        <v>0.9885665281341554</v>
       </c>
       <c r="C168" t="n">
-        <v>7.362699659207652e-07</v>
+        <v>0.0113813039692469</v>
       </c>
       <c r="D168" t="n">
-        <v>0.007899588571683889</v>
+        <v>5.20567205379641e-05</v>
       </c>
       <c r="E168" t="n">
-        <v>2.347734364539117e-06</v>
+        <v>1.111760596943279e-07</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9920973274239856</v>
+        <v>0.9885665281341554</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5823,23 +5823,23 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91733.fa</t>
+          <t>even_MAG-GUT69253.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9854993366302108</v>
+        <v>0.9947826420067097</v>
       </c>
       <c r="C169" t="n">
-        <v>0.01411513386613118</v>
+        <v>0.005125303066839759</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0003853697029769401</v>
+        <v>9.117713241021726e-05</v>
       </c>
       <c r="E169" t="n">
-        <v>1.598006811325091e-07</v>
+        <v>8.777940403220596e-07</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9854993366302108</v>
+        <v>0.9947826420067097</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5855,23 +5855,23 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91735.fa</t>
+          <t>even_MAG-GUT69434.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.9854993366302108</v>
+        <v>0.9915971911218253</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01411513386613118</v>
+        <v>0.007939807997793348</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0003853697029769401</v>
+        <v>0.0004624435786875454</v>
       </c>
       <c r="E170" t="n">
-        <v>1.598006811325091e-07</v>
+        <v>5.573016937724672e-07</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9854993366302108</v>
+        <v>0.9915971911218253</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5887,87 +5887,87 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91835.fa</t>
+          <t>even_MAG-GUT69447.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.04875808750420351</v>
+        <v>0.9766649557846533</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0005323170112981006</v>
+        <v>0.02313593604086077</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9489592786450725</v>
+        <v>0.0001986586220958496</v>
       </c>
       <c r="E171" t="n">
-        <v>0.001750316839425944</v>
+        <v>4.495523900301685e-07</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9489592786450725</v>
+        <v>0.9766649557846533</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91865.fa</t>
+          <t>even_MAG-GUT74324.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.2040650800250735</v>
+        <v>0.9975387996956425</v>
       </c>
       <c r="C172" t="n">
-        <v>0.002679941816662703</v>
+        <v>1.40301739403557e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7898695551707152</v>
+        <v>0.002233302317424157</v>
       </c>
       <c r="E172" t="n">
-        <v>0.003385422987548568</v>
+        <v>0.0002138678129929731</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7898695551707152</v>
+        <v>0.9975387996956425</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91947.fa</t>
+          <t>even_MAG-GUT7772.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.9288374272931414</v>
+        <v>0.9977774956190651</v>
       </c>
       <c r="C173" t="n">
-        <v>0.07110503428053407</v>
+        <v>5.844724985022552e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2.893277527867035e-05</v>
+        <v>0.001961774504467444</v>
       </c>
       <c r="E173" t="n">
-        <v>2.860565104588842e-05</v>
+        <v>0.0002022826266172359</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9288374272931414</v>
+        <v>0.9977774956190651</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5983,23 +5983,23 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92065.fa</t>
+          <t>even_MAG-GUT80568.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.9264852643031781</v>
+        <v>0.9937533329450127</v>
       </c>
       <c r="C174" t="n">
-        <v>0.07338947183742792</v>
+        <v>2.183560614124544e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0001252168227473479</v>
+        <v>0.005737612844063195</v>
       </c>
       <c r="E174" t="n">
-        <v>4.703664667140567e-08</v>
+        <v>0.0004872186047828256</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9264852643031781</v>
+        <v>0.9937533329450127</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6015,87 +6015,87 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92079.fa</t>
+          <t>even_MAG-GUT85070.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.08313487172636015</v>
+        <v>0.9984401216677564</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0001205059997542543</v>
+        <v>0.001502547390978165</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9161238196842637</v>
+        <v>5.632917881235677e-05</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0006208025896218309</v>
+        <v>1.001762453155668e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9161238196842637</v>
+        <v>0.9984401216677564</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92127.fa</t>
+          <t>even_MAG-GUT86606.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.06091501958496077</v>
+        <v>0.997208421574135</v>
       </c>
       <c r="C176" t="n">
-        <v>9.618148570207617e-05</v>
+        <v>7.090553044139269e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9377600737318782</v>
+        <v>0.001834359630627282</v>
       </c>
       <c r="E176" t="n">
-        <v>0.001228725197459063</v>
+        <v>0.0008863132647962729</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9377600737318782</v>
+        <v>0.997208421574135</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9523.fa</t>
+          <t>even_MAG-GUT88052.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.9944485264265194</v>
+        <v>0.9949732415236484</v>
       </c>
       <c r="C177" t="n">
-        <v>2.698214289179609e-05</v>
+        <v>0.0003915794041832155</v>
       </c>
       <c r="D177" t="n">
-        <v>0.004978956425129308</v>
+        <v>0.003876862728977226</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0005455350054594187</v>
+        <v>0.0007583163431911043</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9944485264265194</v>
+        <v>0.9949732415236484</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6111,30 +6111,510 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT88444.fa</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9989999876542034</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0007221781625388881</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0002729447120105858</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.889471247135741e-06</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.9989999876542034</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9016.fa</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9978693425422978</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.002106182439360403</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.320874227310951e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.266276068874361e-06</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.9978693425422978</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91259.fa</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.05146676683773418</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0003157880555271548</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.9466438813526752</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.001573563754063462</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.9466438813526752</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91528.fa</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.03807410944082866</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.001205113556857544</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.9559142086501984</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.004806568352115388</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.9559142086501984</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91549.fa</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.04949758396693923</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.003496947218138131</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.943355006449715</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.003650462365207659</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.943355006449715</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91633.fa</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9920973274239856</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.362699659207652e-07</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.007899588571683889</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.347734364539117e-06</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.9920973274239856</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91733.fa</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9854993366302108</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.01411513386613118</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.0003853697029769401</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.598006811325091e-07</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.9854993366302108</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91735.fa</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9854993366302108</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.01411513386613118</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.0003853697029769401</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.598006811325091e-07</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.9854993366302108</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91835.fa</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.04875808750420351</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0005323170112981006</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.9489592786450725</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.001750316839425944</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.9489592786450725</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91865.fa</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.2040650800250735</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.002679941816662703</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.7898695551707152</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.003385422987548568</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.7898695551707152</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91947.fa</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9288374272931414</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.07110503428053407</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.893277527867035e-05</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.860565104588842e-05</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.9288374272931414</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92065.fa</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.9264852643031781</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.07338947183742792</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.0001252168227473479</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.703664667140567e-08</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.9264852643031781</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92079.fa</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.08313487172636015</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0001205059997542543</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.9161238196842637</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.0006208025896218309</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.9161238196842637</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92127.fa</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.06091501958496077</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9.618148570207617e-05</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.9377600737318782</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.001228725197459063</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.9377600737318782</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9523.fa</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9944485264265194</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.698214289179609e-05</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.004978956425129308</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.0005455350054594187</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.9944485264265194</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT988.fa</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B193" t="n">
         <v>0.1015793322184902</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C193" t="n">
         <v>5.567033167141265e-05</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D193" t="n">
         <v>0.897958985190605</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E193" t="n">
         <v>0.0004060122592332238</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F193" t="n">
         <v>0.897958985190605</v>
       </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>o__Propionibacteriales</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
         <is>
           <t>o__Propionibacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Actinomycetia.xlsx
+++ b/outputs-HGR-r202/c__Actinomycetia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2333,6 +2678,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2360,6 +2710,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2387,6 +2742,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2414,6 +2774,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2441,6 +2806,11 @@
           <t>o__Mycobacteriales</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>o__Mycobacteriales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2468,6 +2838,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2495,6 +2870,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2522,6 +2902,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2549,6 +2934,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2576,6 +2966,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2603,6 +2998,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2630,6 +3030,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2657,6 +3062,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2684,6 +3094,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2711,6 +3126,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2738,6 +3158,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2765,6 +3190,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2792,6 +3222,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2819,6 +3254,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2846,6 +3286,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2873,6 +3318,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2900,6 +3350,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2927,6 +3382,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2954,6 +3414,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2981,6 +3446,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3008,6 +3478,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3035,6 +3510,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3062,6 +3542,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3089,6 +3574,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3116,6 +3606,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3143,6 +3638,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3170,6 +3670,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3197,6 +3702,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3224,6 +3734,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3251,6 +3766,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3278,6 +3798,11 @@
           <t>o__Mycobacteriales</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>o__Mycobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3305,6 +3830,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3332,6 +3862,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3359,6 +3894,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3386,6 +3926,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3413,6 +3958,11 @@
           <t>o__Mycobacteriales</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>o__Mycobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3440,6 +3990,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3467,6 +4022,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3494,6 +4054,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3521,6 +4086,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3548,6 +4118,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3575,6 +4150,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3602,6 +4182,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3629,6 +4214,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3656,6 +4246,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3683,6 +4278,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3710,6 +4310,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3737,6 +4342,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3764,6 +4374,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3791,6 +4406,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3818,6 +4438,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3845,6 +4470,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3872,6 +4502,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3899,6 +4534,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3926,6 +4566,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3953,6 +4598,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3980,6 +4630,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4007,6 +4662,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4034,6 +4694,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4061,6 +4726,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4088,6 +4758,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4115,6 +4790,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4142,6 +4822,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4169,6 +4854,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4196,6 +4886,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4223,6 +4918,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4250,6 +4950,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4277,6 +4982,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4304,6 +5014,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4331,6 +5046,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4358,6 +5078,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4385,6 +5110,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4412,6 +5142,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4439,6 +5174,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4466,6 +5206,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4493,6 +5238,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4520,6 +5270,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4547,6 +5302,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4574,6 +5334,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4601,6 +5366,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4628,6 +5398,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4655,6 +5430,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4682,6 +5462,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4709,6 +5494,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4736,6 +5526,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4763,6 +5558,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -4790,6 +5590,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -4817,6 +5622,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -4844,6 +5654,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -4871,6 +5686,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -4898,6 +5718,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -4925,6 +5750,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -4952,6 +5782,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -4979,6 +5814,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -5006,6 +5846,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -5033,6 +5878,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -5060,6 +5910,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -5087,6 +5942,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -5114,6 +5974,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -5141,6 +6006,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -5168,6 +6038,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -5195,6 +6070,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -5222,6 +6102,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -5249,6 +6134,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -5276,6 +6166,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -5303,6 +6198,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -5330,6 +6230,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -5357,6 +6262,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -5384,6 +6294,11 @@
           <t>o__Propionibacteriales</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -5411,6 +6326,11 @@
           <t>o__Actinomycetales</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>o__Actinomycetales</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -5434,6 +6354,11 @@
         <v>0.897958985190605</v>
       </c>
       <c r="G185" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
         <is>
           <t>o__Propionibacteriales</t>
         </is>

--- a/outputs-HGR-r202/c__Actinomycetia.xlsx
+++ b/outputs-HGR-r202/c__Actinomycetia.xlsx
@@ -1016,7 +1016,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>o__Mycobacteriales</t>
+          <t>o__Mycobacteriales(reject)</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
